--- a/data/trans_camb/P15B_3_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P15B_3_R-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>19.34357618753665</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.762969335398835</v>
+        <v>2.762969335398836</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.07214652568971469</v>
@@ -664,7 +664,7 @@
         <v>-0.7712633917617173</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-7.658686857607471</v>
+        <v>-7.658686857607472</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-42.52924010226755</v>
+        <v>-45.44617351500527</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-43.04402957094987</v>
+        <v>-46.70681835547235</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-42.22057182833201</v>
+        <v>-43.10855649348935</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.424438725629876</v>
+        <v>5.161732493961551</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-20.97448884917335</v>
+        <v>-24.60782791699289</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-24.0438088619927</v>
+        <v>-24.11222363037556</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-28.56194037615237</v>
+        <v>-30.01434166889317</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.55951820624921</v>
+        <v>10.00458514522925</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.912470463689909</v>
+        <v>8.202109466798346</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.94788460269943</v>
+        <v>14.83972922746588</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>55.99205957491229</v>
+        <v>53.3907801865098</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>41.56349862154931</v>
+        <v>44.74343791290983</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>13.41641605059482</v>
+        <v>13.71003397424954</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>17.69080002663117</v>
+        <v>16.3013600789539</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>16.47332952268156</v>
+        <v>15.88311101962501</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.24326958259479</v>
+        <v>6.629447748108425</v>
       </c>
     </row>
     <row r="7">
@@ -775,7 +775,7 @@
         <v>-0.05201811333294932</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.5165426561094683</v>
+        <v>-0.5165426561094684</v>
       </c>
     </row>
     <row r="8">
@@ -785,21 +785,19 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="6" t="n">
-        <v>-0.9199647374224057</v>
-      </c>
+      <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
-      <c r="I8" s="6" t="n">
-        <v>-0.7750525849191262</v>
-      </c>
+      <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="n">
-        <v>-0.7762435538350139</v>
-      </c>
-      <c r="K8" s="6" t="inlineStr"/>
+        <v>-0.8148786521223453</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -808,9 +806,7 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="6" t="n">
-        <v>2.192867101191611</v>
-      </c>
+      <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="inlineStr"/>
@@ -818,7 +814,7 @@
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="n">
-        <v>4.197966007427367</v>
+        <v>3.745628574479619</v>
       </c>
       <c r="K9" s="6" t="inlineStr"/>
     </row>
@@ -840,7 +836,7 @@
         <v>11.52657135786444</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8.453845344638916</v>
+        <v>8.453845344638914</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -849,7 +845,7 @@
         <v>4.888243349403743</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>5.798517270302368</v>
+        <v>5.798517270302367</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>6.630969103368073</v>
@@ -858,7 +854,7 @@
         <v>7.761985994034496</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>7.145786337348039</v>
+        <v>7.145786337348035</v>
       </c>
     </row>
     <row r="11">
@@ -869,7 +865,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.914808882350894</v>
+        <v>2.921584855392299</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
@@ -885,13 +881,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.683064363525892</v>
+        <v>1.586306036282852</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.440062818720708</v>
+        <v>2.354335611326575</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.87940999793949</v>
+        <v>1.790471730134217</v>
       </c>
     </row>
     <row r="12">
@@ -902,29 +898,29 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>32.60078720489783</v>
+        <v>33.30814022011423</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>34.84874893316929</v>
+        <v>34.88478540424985</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>25.7823901940564</v>
+        <v>27.33466562976173</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="n">
-        <v>22.27750125590887</v>
+        <v>22.20513494564255</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>19.36373658866792</v>
+        <v>17.07214625269088</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>18.013575476402</v>
+        <v>18.53994519624686</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>22.02759699417219</v>
+        <v>19.03308648580826</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.19547656423498</v>
+        <v>17.31088767592416</v>
       </c>
     </row>
     <row r="13">
@@ -1037,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>4.288526770500322</v>
+        <v>4.288526770500321</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-40.66348188995821</v>
@@ -1057,13 +1053,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-64.99557634465974</v>
+        <v>-65.45054281196701</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-63.50302479861427</v>
+        <v>-60.8836453167493</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-65.44308132733683</v>
+        <v>-64.44613682453905</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="inlineStr"/>
@@ -1071,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-59.75451401554668</v>
+        <v>-57.90270535315022</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-57.14928660319416</v>
+        <v>-56.13017524788092</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-59.24456714135167</v>
+        <v>-59.13926781372079</v>
       </c>
     </row>
     <row r="18">
@@ -1088,27 +1084,27 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-25.6996171897672</v>
+        <v>-23.44791611102112</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-16.2965161345514</v>
+        <v>-11.17439367685752</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-19.96258351180784</v>
+        <v>-18.04008224099446</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>26.53018316561379</v>
+        <v>21.24545125994205</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-22.59871784377603</v>
+        <v>-18.96009048330389</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-14.36368772880765</v>
+        <v>-13.07165216053505</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-18.93521048540162</v>
+        <v>-17.71131387313231</v>
       </c>
     </row>
     <row r="19">
@@ -1141,7 +1137,7 @@
         <v>-0.6297224369543747</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.6718857341336801</v>
+        <v>-0.6718857341336802</v>
       </c>
     </row>
     <row r="20">
@@ -1152,25 +1148,25 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8154850935029464</v>
+        <v>-0.8305724027462003</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8064214337753723</v>
+        <v>-0.7919171524872157</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.8438191434333636</v>
+        <v>-0.8272210954509828</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.8353145733591896</v>
+        <v>-0.8193962120748602</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.8259008221984989</v>
+        <v>-0.8236906232725049</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.8424072397054094</v>
+        <v>-0.8432988683472188</v>
       </c>
     </row>
     <row r="21">
@@ -1181,25 +1177,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.4528363159868414</v>
+        <v>-0.45915519806967</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.2761912344519687</v>
+        <v>-0.2087072448888926</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.3673884609508324</v>
+        <v>-0.3427933410681626</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>-0.4652469482177757</v>
+        <v>-0.4317826742241875</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2920479374439988</v>
+        <v>-0.264448663876039</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.3921141525290371</v>
+        <v>-0.3944090313101814</v>
       </c>
     </row>
     <row r="22">
@@ -1229,7 +1225,7 @@
         <v>-20.0100672780636</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-16.99326486870682</v>
+        <v>-16.99326486870681</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-10.91576539374813</v>
@@ -1249,31 +1245,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-24.6038119295476</v>
+        <v>-27.43673388927759</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-35.51428831539823</v>
+        <v>-34.03060220843408</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-27.4165777187727</v>
+        <v>-27.25785287931882</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-37.93089011298913</v>
+        <v>-41.1776957372597</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-41.96891867883465</v>
+        <v>-43.96784481639107</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-38.67603006842559</v>
+        <v>-39.13017407918007</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-24.97059969314469</v>
+        <v>-26.9199142602307</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-31.39956026786537</v>
+        <v>-31.17043490194376</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-24.71103329597852</v>
+        <v>-26.87968150544868</v>
       </c>
     </row>
     <row r="24">
@@ -1284,31 +1280,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.971980580478032</v>
+        <v>7.704859018703488</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.7275646369251917</v>
+        <v>2.699465845349373</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.698900215349303</v>
+        <v>10.80079507834316</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.936339508972265</v>
+        <v>3.066889627815766</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.180666032300707</v>
+        <v>0.1399576454143838</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.522193394066378</v>
+        <v>2.248087167064044</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.387040369845763</v>
+        <v>0.8691220288319809</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-5.416002529458893</v>
+        <v>-4.66785365835485</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.859277482781207</v>
+        <v>2.052953789948257</v>
       </c>
     </row>
     <row r="25">
@@ -1343,7 +1339,7 @@
         <v>-0.5567430498674938</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3675544907327905</v>
+        <v>-0.3675544907327906</v>
       </c>
     </row>
     <row r="26">
@@ -1354,31 +1350,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5508358980371881</v>
+        <v>-0.5704276615104288</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7610777649597305</v>
+        <v>-0.7534896804063224</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5935968323928413</v>
+        <v>-0.588200960318123</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.8585203218033344</v>
+        <v>-0.8775075259974815</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.9168234085094252</v>
+        <v>-0.9156511731200169</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8672838307116816</v>
+        <v>-0.8695477347692292</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5840273526623552</v>
+        <v>-0.598884132523963</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.7553222127594005</v>
+        <v>-0.7628551002220085</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.6127709637989728</v>
+        <v>-0.636998870609384</v>
       </c>
     </row>
     <row r="27">
@@ -1389,31 +1385,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5419467559322275</v>
+        <v>0.4155990753312317</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.01176476825363013</v>
+        <v>0.2223993575139212</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.440638559813306</v>
+        <v>0.4950766425840277</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.335913005258628</v>
+        <v>0.3080998954953496</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3064811500960091</v>
+        <v>0.4071402164221919</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3178014679034816</v>
+        <v>0.4790512459988453</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0735496812769204</v>
+        <v>0.0612456918144651</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1845900305785231</v>
+        <v>-0.184298173715572</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1306947536718495</v>
+        <v>0.09460869776840759</v>
       </c>
     </row>
     <row r="28">
@@ -1434,7 +1430,7 @@
         <v>-13.70626142054672</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8.714812697646146</v>
+        <v>8.71481269764614</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-4.978095677962528</v>
@@ -1443,7 +1439,7 @@
         <v>4.318701176145051</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.841072572894328</v>
+        <v>2.841072572894329</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.790759320179276</v>
@@ -1463,31 +1459,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-24.4079539170881</v>
+        <v>-22.29442038282859</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-51.05721176150948</v>
+        <v>-46.63987623056336</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-28.91403258830388</v>
+        <v>-28.43383714968589</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-21.68089564201476</v>
+        <v>-23.94431724989928</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-13.43736000049912</v>
+        <v>-12.92654636395859</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-14.72127112920665</v>
+        <v>-20.03402300366739</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-16.18870244600783</v>
+        <v>-15.52397660313445</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-20.30972489834907</v>
+        <v>-20.0563104767471</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-10.59922326572202</v>
+        <v>-10.65435143922973</v>
       </c>
     </row>
     <row r="30">
@@ -1498,31 +1494,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>40.88973530246251</v>
+        <v>41.04975929682648</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>11.49977306146697</v>
+        <v>12.6033237943392</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>38.55375852248085</v>
+        <v>38.74479685883321</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.268534940541308</v>
+        <v>3.780149734905507</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>19.30840934312871</v>
+        <v>18.59230685019095</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>13.44445795625043</v>
+        <v>12.66920650554173</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>15.70059306399923</v>
+        <v>15.52861549038844</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>10.67746798977489</v>
+        <v>12.06062196589237</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>22.55860078559269</v>
+        <v>23.22714081771199</v>
       </c>
     </row>
     <row r="31">
@@ -1539,7 +1535,7 @@
         <v>-0.4562867342330912</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.2901194792112334</v>
+        <v>0.2901194792112333</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.5682612605274093</v>
@@ -1548,7 +1544,7 @@
         <v>0.4929898364673145</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3243150766808009</v>
+        <v>0.324315076680801</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1698989388079502</v>
@@ -1568,29 +1564,29 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4696372844720035</v>
+        <v>-0.4282558487819607</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8714712570861325</v>
+        <v>-0.8942458961086556</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5911603548810153</v>
+        <v>-0.6065254272887276</v>
       </c>
       <c r="F32" s="6" t="inlineStr"/>
       <c r="G32" s="6" t="n">
-        <v>-0.7997404220254891</v>
+        <v>-0.8374083060205291</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.7633901769955727</v>
+        <v>-0.7723525151695697</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.5612052662577108</v>
+        <v>-0.5976747907835496</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.7411976232356722</v>
+        <v>-0.7029127724054102</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.4524117174262312</v>
+        <v>-0.4336012197470435</v>
       </c>
     </row>
     <row r="33">
@@ -1601,25 +1597,25 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>4.407226540901731</v>
+        <v>4.29233638056098</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.497276696886066</v>
+        <v>1.777743731919299</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>4.464694296447796</v>
+        <v>4.123401449599535</v>
       </c>
       <c r="F33" s="6" t="inlineStr"/>
       <c r="G33" s="6" t="inlineStr"/>
       <c r="H33" s="6" t="inlineStr"/>
       <c r="I33" s="6" t="n">
-        <v>2.503634852363967</v>
+        <v>1.961633148196197</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.600965963939395</v>
+        <v>2.025251146445902</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>3.258174198178425</v>
+        <v>3.814075421077576</v>
       </c>
     </row>
     <row r="34">
@@ -1693,12 +1689,12 @@
       <c r="D36" s="5" t="inlineStr"/>
       <c r="E36" s="5" t="inlineStr"/>
       <c r="F36" s="5" t="n">
-        <v>6.784129190570686</v>
+        <v>5.762158942935665</v>
       </c>
       <c r="G36" s="5" t="inlineStr"/>
       <c r="H36" s="5" t="inlineStr"/>
       <c r="I36" s="5" t="n">
-        <v>5.710216624332412</v>
+        <v>5.06116626642376</v>
       </c>
       <c r="J36" s="5" t="inlineStr"/>
       <c r="K36" s="5" t="inlineStr"/>
@@ -1780,7 +1776,7 @@
         <v>-17.42822918606563</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-9.560415213309712</v>
+        <v>-9.560415213309714</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-4.849381659781986</v>
@@ -1809,31 +1805,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-21.2214697142021</v>
+        <v>-20.50045058027107</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-27.87422651084617</v>
+        <v>-28.21935896604981</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-20.36952821631429</v>
+        <v>-20.30996253178362</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-13.46534848631506</v>
+        <v>-13.44036287664912</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-11.09981349430547</v>
+        <v>-10.96756351690562</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-10.8678240160523</v>
+        <v>-9.99895011633158</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-15.90566773761072</v>
+        <v>-15.98362248280127</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-18.1650232443172</v>
+        <v>-17.95740102377569</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-14.42015160977552</v>
+        <v>-15.38339851862964</v>
       </c>
     </row>
     <row r="42">
@@ -1844,31 +1840,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-1.353591078658176</v>
+        <v>-1.144428845299941</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-7.446367188716252</v>
+        <v>-7.252386680510546</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.0337083428886</v>
+        <v>2.069946354772648</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.012510131180195</v>
+        <v>1.083548617903139</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.310077187492659</v>
+        <v>3.313219019436288</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>3.406868371510322</v>
+        <v>3.715061023557697</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-2.207330812386304</v>
+        <v>-2.038330040225329</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-4.98712756664894</v>
+        <v>-5.066024016347098</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-0.3424212316827739</v>
+        <v>-1.338078371130987</v>
       </c>
     </row>
     <row r="43">
@@ -1885,7 +1881,7 @@
         <v>-0.5384744306080224</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.2953850952613836</v>
+        <v>-0.2953850952613837</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.4794689030787955</v>
@@ -1914,31 +1910,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5318464063994434</v>
+        <v>-0.5249368784667409</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.7010118425747531</v>
+        <v>-0.7117379484067162</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.526568594457935</v>
+        <v>-0.5246574637863636</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.7939768261919584</v>
+        <v>-0.8036901782591261</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.6711783996992151</v>
+        <v>-0.7234786462889019</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.660473121126302</v>
+        <v>-0.647739455470457</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.566914222986703</v>
+        <v>-0.5710419045528293</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.6605693002543594</v>
+        <v>-0.6593670890497425</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.5302665669406578</v>
+        <v>-0.5471709725107711</v>
       </c>
     </row>
     <row r="45">
@@ -1949,31 +1945,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.0489154558639182</v>
+        <v>-0.04573017622632048</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.2825917423736086</v>
+        <v>-0.2844896698150551</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1281493740413565</v>
+        <v>0.1037142572328059</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3155262866330699</v>
+        <v>0.3008771483069139</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.6691252160170947</v>
+        <v>0.6437910598764823</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.8330867891051967</v>
+        <v>0.8008969646780473</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.116622791266041</v>
+        <v>-0.1186915260369264</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.2726178330598909</v>
+        <v>-0.2728105425014692</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.0214070139854068</v>
+        <v>-0.05190318596455819</v>
       </c>
     </row>
     <row r="46">
